--- a/Test c#/Assets.xlsx
+++ b/Test c#/Assets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8760" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Senvion" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,17 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+  <si>
+    <t>Vendor ID</t>
+  </si>
+  <si>
+    <t>MPulse ID</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,34 +363,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,43 +424,85 @@
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test c#/Assets.xlsx
+++ b/Test c#/Assets.xlsx
@@ -4,27 +4,509 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8760" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="8700" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Senvion" sheetId="1" r:id="rId1"/>
-    <sheet name="Nordex" sheetId="2" r:id="rId2"/>
-    <sheet name="Gamesa" sheetId="3" r:id="rId3"/>
-    <sheet name="Suzlon" sheetId="4" r:id="rId4"/>
-    <sheet name="Vestas" sheetId="5" r:id="rId5"/>
+    <sheet name="Highland 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Highland North" sheetId="2" r:id="rId2"/>
+    <sheet name="Patton" sheetId="3" r:id="rId3"/>
+    <sheet name="Big Sky" sheetId="4" r:id="rId4"/>
+    <sheet name="Mustang Hills" sheetId="5" r:id="rId5"/>
     <sheet name="EverPower" sheetId="6" r:id="rId6"/>
+    <sheet name="Twin Ridges" sheetId="7" r:id="rId7"/>
+    <sheet name="Howard" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="162">
   <si>
     <t>Vendor ID</t>
   </si>
   <si>
     <t>MPulse ID</t>
+  </si>
+  <si>
+    <t>G97 / 78 / 1 - Patton</t>
+  </si>
+  <si>
+    <t>PATTN-WTG01</t>
+  </si>
+  <si>
+    <t>PATTN-WTG02</t>
+  </si>
+  <si>
+    <t>PATTN-WTG03</t>
+  </si>
+  <si>
+    <t>PATTN-WTG04</t>
+  </si>
+  <si>
+    <t>PATTN-WTG05</t>
+  </si>
+  <si>
+    <t>PATTN-WTG06</t>
+  </si>
+  <si>
+    <t>PATTN-WTG07</t>
+  </si>
+  <si>
+    <t>PATTN-WTG08</t>
+  </si>
+  <si>
+    <t>PATTN-WTG09</t>
+  </si>
+  <si>
+    <t>PATTN-WTG10</t>
+  </si>
+  <si>
+    <t>PATTN-WTG11</t>
+  </si>
+  <si>
+    <t>PATTN-WTG12</t>
+  </si>
+  <si>
+    <t>PATTN-WTG13</t>
+  </si>
+  <si>
+    <t>PATTN-WTG14</t>
+  </si>
+  <si>
+    <t>PATTN-WTG15</t>
+  </si>
+  <si>
+    <t>PATTN-WTG16</t>
+  </si>
+  <si>
+    <t>PATTN-WTG17</t>
+  </si>
+  <si>
+    <t>G97 / 90 / 2 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 78 / 3 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 90 / 4 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 90 / 5 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 90 / 6 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 90 / 7 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 90 / 8 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 90 / 9 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 90 / 10 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 90 / 11 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 90 / 12 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 90 / 14 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 78 / 13 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 90 / 16 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 90 / 17 - Patton</t>
+  </si>
+  <si>
+    <t>G97 / 78 / 15 - Patton</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG001</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG002</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG003</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG004</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG005</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG006</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG007</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG008</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG009</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG010</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG011</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG012</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG013</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG014</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG015</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG016</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG017</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG018</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG019</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG020</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG021</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG022</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG023</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG024</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG025</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG026</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG027</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG028</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG029</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG030</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG031</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG032</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG033</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG034</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG035</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG036</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG037</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG038</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG039</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG040</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG041</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG042</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG043</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG044</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG045</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG046</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG047</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG048</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG049</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG050</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG051</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG052</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG053</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG054</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG055</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG056</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG057</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG058</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG059</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG060</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG061</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG062</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG063</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG064</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG065</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG066</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG067</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG068</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG069</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG070</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG071</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG072</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG073</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG074</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG075</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG076</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG077</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG078</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG079</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG080</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG081</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG082</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG083</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG084</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG085</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG086</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG087</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG088</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG089</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG090</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG091</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG092</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG093</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG094</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG095</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG096</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG097</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG098</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG099</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG100</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG101</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG102</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG103</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG104</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG105</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG106</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG107</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG108</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG109</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG110</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG111</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG112</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG113</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG114</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG115</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG116</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG117</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG118</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG119</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG120</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG121</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG122</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG123</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG124</t>
+  </si>
+  <si>
+    <t>BGSKY-WTG125</t>
+  </si>
+  <si>
+    <t>HIGHNO-WTG26</t>
   </si>
 </sst>
 </file>
@@ -366,7 +848,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,6 +870,1254 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -410,40 +2140,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,12 +2163,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,27 +2184,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>